--- a/变化规则.xlsx
+++ b/变化规则.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\德语\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4C0B6D-8610-481A-ACB1-643D921B5446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9435F-B721-46A4-9E2A-2EBC102157CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{44A6C615-4FC6-9145-8BBF-6AD7B7D325F8}"/>
+    <workbookView xWindow="1692" yWindow="4128" windowWidth="6840" windowHeight="8520" activeTab="4" xr2:uid="{44A6C615-4FC6-9145-8BBF-6AD7B7D325F8}"/>
   </bookViews>
   <sheets>
     <sheet name="e-a" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="511">
   <si>
     <t>Inf</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -825,7 +825,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>点燃</t>
+      <t>给</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -838,7 +838,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>给</t>
+      <t>帮助</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -851,7 +851,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>帮助</t>
+      <t>了解，认识</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -864,7 +864,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>了解，认识</t>
+      <t>读</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -877,7 +877,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>读</t>
+      <t>测量</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -890,7 +890,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>测量</t>
+      <t>拿</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -903,7 +903,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>拿</t>
+      <t>称呼</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -916,7 +916,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>称呼</t>
+      <t>奔跑</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -929,8 +929,28 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>奔跑</t>
-    </r>
+      <t>惊慌</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gelegen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gerungen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜托</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -942,28 +962,68 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>惊慌</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lag</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gelegen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gerungen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拜托</t>
+      <t>处于</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扭，扭斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hielt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hält</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geholten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gehangen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lässt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ließ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gelassen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rät</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>riet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geraten</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>schläft</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>schlief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>geschlafen</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -975,98 +1035,12 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>处于</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扭，扭斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hielt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hält</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>geholten</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gehangen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lässt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ließ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gelassen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rät</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>riet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>geraten</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>schläft</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>schlief</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>geschlafen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>吹</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>捕捉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>炸</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2234,10 +2208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>渗透，入侵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>带</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2717,6 +2687,22 @@
   </si>
   <si>
     <t>指引，驱赶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渗透，坚持，催促</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dringen auf A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>油炸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2724,7 +2710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2885,6 +2871,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2914,7 +2907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2983,6 +2976,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3300,8 +3296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2660D0-236E-FC4B-AFFF-407BFE279468}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -3316,7 +3312,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="19" customFormat="1" ht="30.6">
       <c r="A1" s="19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18">
@@ -3336,7 +3332,7 @@
         <v>176</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18">
@@ -3376,7 +3372,7 @@
         <v>178</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18">
@@ -3419,7 +3415,7 @@
         <v>184</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18">
@@ -3437,7 +3433,7 @@
         <v>185</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18">
@@ -3451,11 +3447,11 @@
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>186</v>
+      <c r="E8" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18">
@@ -3472,10 +3468,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18">
@@ -3492,7 +3488,7 @@
         <v>156</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18">
@@ -3507,7 +3503,7 @@
         <v>158</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18">
@@ -3524,7 +3520,7 @@
         <v>161</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18">
@@ -3541,7 +3537,7 @@
         <v>164</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18">
@@ -3558,7 +3554,7 @@
         <v>167</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18">
@@ -3573,7 +3569,7 @@
         <v>169</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18">
@@ -3588,7 +3584,7 @@
         <v>171</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18">
@@ -3605,223 +3601,223 @@
         <v>175</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A18" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>328</v>
-      </c>
       <c r="E18" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A19" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A20" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>386</v>
+      <c r="E20" s="23" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A21" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A22" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A23" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>374</v>
-      </c>
       <c r="E23" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A24" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A25" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A26" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>395</v>
+      <c r="E26" s="23" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A27" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A28" s="12" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A29" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>469</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A30" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>477</v>
-      </c>
       <c r="C30" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="12" customFormat="1" ht="18"/>
@@ -3835,6 +3831,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3856,7 +3853,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" ht="30.6">
       <c r="A1" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3888,7 +3885,7 @@
         <v>130</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3896,13 +3893,13 @@
         <v>131</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3962,7 +3959,7 @@
         <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3970,16 +3967,16 @@
         <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="7" customFormat="1">
@@ -3987,13 +3984,13 @@
         <v>127</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4001,13 +3998,13 @@
         <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4021,92 +4018,92 @@
         <v>120</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>447</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>473</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>484</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -4135,7 +4132,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" ht="30.6">
       <c r="A1" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4160,13 +4157,13 @@
         <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4174,16 +4171,16 @@
         <v>151</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4197,10 +4194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77A1865-6DEC-7E49-A084-3583B96A89E7}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -4208,16 +4205,17 @@
     <col min="1" max="1" width="12.6328125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.81640625" style="7"/>
     <col min="4" max="4" width="14.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.81640625" style="7"/>
+    <col min="5" max="5" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.81640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" ht="30.6">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="30.6">
       <c r="A1" s="20" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4234,7 +4232,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -4246,10 +4244,10 @@
         <v>28</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
@@ -4261,10 +4259,10 @@
         <v>31</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -4276,10 +4274,13 @@
         <v>34</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18">
+        <v>508</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -4291,10 +4292,10 @@
         <v>37</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -4306,10 +4307,10 @@
         <v>40</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -4321,10 +4322,10 @@
         <v>43</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -4336,134 +4337,134 @@
         <v>85</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18">
       <c r="A10" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18">
+      <c r="E10" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18">
       <c r="A11" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18">
+    </row>
+    <row r="12" spans="1:6" ht="18">
       <c r="A12" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18">
+      <c r="A13" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18">
+      <c r="A15" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>411</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="5" t="s">
-        <v>336</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D16" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18">
-      <c r="A16" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>420</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18">
       <c r="A17" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>421</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18">
       <c r="A18" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>491</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -4494,7 +4495,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" ht="30.6">
       <c r="A1" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
@@ -4526,7 +4527,7 @@
         <v>58</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
@@ -4541,7 +4542,7 @@
         <v>61</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
@@ -4556,7 +4557,7 @@
         <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -4571,7 +4572,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
@@ -4586,7 +4587,7 @@
         <v>70</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
@@ -4601,7 +4602,7 @@
         <v>73</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
@@ -4616,7 +4617,7 @@
         <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
@@ -4631,7 +4632,7 @@
         <v>79</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
@@ -4640,13 +4641,13 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
@@ -4654,13 +4655,13 @@
         <v>147</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
@@ -4668,55 +4669,55 @@
         <v>150</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18">
       <c r="A14" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18">
       <c r="A15" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18">
       <c r="A16" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4732,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A52ACB7-EBA3-AE4E-AA30-9A09C5059D68}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -4747,7 +4748,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="22" customFormat="1" ht="30.6">
       <c r="A1" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
@@ -4781,7 +4782,7 @@
         <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" ht="18">
@@ -4798,7 +4799,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
@@ -4814,8 +4815,8 @@
       <c r="D5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>219</v>
+      <c r="E5" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -4832,7 +4833,7 @@
         <v>106</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
@@ -4840,16 +4841,16 @@
         <v>112</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
@@ -4857,13 +4858,13 @@
         <v>113</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
@@ -4871,16 +4872,16 @@
         <v>122</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>210</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
@@ -4888,16 +4889,16 @@
         <v>136</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
@@ -4905,16 +4906,16 @@
         <v>148</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
@@ -4922,16 +4923,16 @@
         <v>123</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="E12" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4963,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" ht="30.6">
       <c r="A1" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4996,7 +4997,7 @@
         <v>95</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5013,7 +5014,7 @@
         <v>110</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5021,16 +5022,16 @@
         <v>121</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5038,16 +5039,16 @@
         <v>145</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5055,67 +5056,67 @@
         <v>149</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>428</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>455</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>459</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -5131,7 +5132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD619087-8A15-114A-8C7A-839F14DB45DA}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -5144,7 +5145,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="22" customFormat="1" ht="30.6">
       <c r="A1" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18">
@@ -5176,7 +5177,7 @@
         <v>88</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18">
@@ -5191,7 +5192,7 @@
         <v>91</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18">
@@ -5206,7 +5207,7 @@
         <v>82</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18">
@@ -5214,13 +5215,13 @@
         <v>125</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18">
@@ -5228,13 +5229,13 @@
         <v>132</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18">
@@ -5242,13 +5243,13 @@
         <v>137</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18">
@@ -5256,13 +5257,13 @@
         <v>146</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
@@ -5270,13 +5271,13 @@
         <v>153</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18">
@@ -5284,97 +5285,97 @@
         <v>154</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18">
       <c r="A12" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18">
       <c r="A13" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="11" customFormat="1" ht="18">
       <c r="A14" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>347</v>
-      </c>
       <c r="E14" s="16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="11" customFormat="1">
       <c r="A15" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="11" customFormat="1">
       <c r="A16" s="11" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1"/>
@@ -5465,7 +5466,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="22" customFormat="1" ht="30.6">
       <c r="A1" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5496,7 +5497,7 @@
         <v>102</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5510,7 +5511,7 @@
         <v>140</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5541,7 +5542,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" ht="30.6">
       <c r="A1" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5566,13 +5567,13 @@
         <v>124</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5580,41 +5581,41 @@
         <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
